--- a/output/fit_clients/fit_round_25.xlsx
+++ b/output/fit_clients/fit_round_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>5941663656.289467</v>
+        <v>3620173363.683188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2094043557452059</v>
+        <v>0.3451351370445979</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4840392158289597</v>
+        <v>0.7481013651993476</v>
       </c>
       <c r="I2" t="n">
-        <v>0.234508693175126</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.474835234142569</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7480972895556637</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.487110556970704</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>9666842034.489534</v>
+        <v>6518598639.39598</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1503863872827593</v>
+        <v>0.2415018130562295</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2090497560338283</v>
+        <v>0.4646360398136611</v>
       </c>
       <c r="I3" t="n">
-        <v>2.491849969742597</v>
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5567111406511116</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.463521942935812</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6254753208519753</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.045984474103694</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>7643368708.600829</v>
+        <v>8262535896.002337</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1943114595961805</v>
+        <v>0.1585100526623636</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4137150846043238</v>
+        <v>0.2376310045701852</v>
       </c>
       <c r="I4" t="n">
-        <v>2.545727806926221</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.350704700666995</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7598411428137115</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.846118155607236</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6581232211.432646</v>
+        <v>9887589507.510303</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.220497015358178</v>
+        <v>0.1088808641562508</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5357245678349924</v>
+        <v>0.1018816767758569</v>
       </c>
       <c r="I5" t="n">
-        <v>2.487360149977295</v>
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9856202027567373</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0953048181749173</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.695235438830634</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7060945826193629</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.42665621355662</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>5057198096.518773</v>
+        <v>9695230800.447544</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2418839655187826</v>
+        <v>0.1388689436808302</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6353753356358576</v>
+        <v>0.1839072298796136</v>
       </c>
       <c r="I6" t="n">
-        <v>2.096745830396023</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.426813335975053</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7667871809877105</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.908930283779156</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>4860745041.214595</v>
+        <v>7816072020.087687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.241960049339703</v>
+        <v>0.2050987600779574</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6357298420575309</v>
+        <v>0.3650637896880501</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1864790985575148</v>
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9880053022045242</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3948827978834642</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.675172798371462</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8335159040822875</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13.99514528327429</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>6873567608.47151</v>
+        <v>4311811885.597859</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2225516423399475</v>
+        <v>0.2794461892051978</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5452979363957352</v>
+        <v>0.568424227991736</v>
       </c>
       <c r="I8" t="n">
-        <v>2.622054742936355</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.331038324514807</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.739132290817501</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.451607491835212</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>9538156665.828323</v>
+        <v>6167959960.401196</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1219322769321488</v>
+        <v>0.2161605325844685</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07647012582774518</v>
+        <v>0.3953207458699495</v>
       </c>
       <c r="I9" t="n">
-        <v>1.993479975794078</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.636253545828952</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7643233418288448</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.650213290747944</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>5733186004.435737</v>
+        <v>11037652276.84603</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2526557953778729</v>
+        <v>0.1238779357878727</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6855658073028232</v>
+        <v>0.1429027463149108</v>
       </c>
       <c r="I10" t="n">
-        <v>2.482870330211993</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.309992487258777</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.770691323008721</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.103833972915643</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>7822681752.222724</v>
+        <v>5900571494.847084</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1376215119187362</v>
+        <v>0.25703049464352</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1495728497262443</v>
+        <v>0.5071112071589261</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1742402550952085</v>
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3676851037768942</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.108252610339322</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5658928400918672</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.209604191498023</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>9284427925.135719</v>
+        <v>11468696228.88691</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1365495828308094</v>
+        <v>0.1109998481600338</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1445782826730723</v>
+        <v>0.1076776743083383</v>
       </c>
       <c r="I12" t="n">
-        <v>2.173072766406157</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.382466323142733</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7527437005322898</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.672407687503062</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>8576387792.625165</v>
+        <v>13763989919.8568</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.144463088652007</v>
+        <v>0.1040981821654013</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1814506242251445</v>
+        <v>0.0887997408253649</v>
       </c>
       <c r="I13" t="n">
-        <v>0.205445767365431</v>
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9842282609334713</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2967221556805791</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.404233615772819</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8860896881224686</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.31756014667655</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>9321882614.199854</v>
+        <v>8062060157.561475</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1486456510286081</v>
+        <v>0.1998155333149058</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2009389359794335</v>
+        <v>0.3506127276566628</v>
       </c>
       <c r="I14" t="n">
-        <v>2.375114655844746</v>
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9842113544663492</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3418962099925148</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.941826830648231</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8852375437188909</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.76292404372958</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>6403181866.045487</v>
+        <v>9135806043.945688</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2294918090320505</v>
+        <v>0.1075188379957949</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5776350828490894</v>
+        <v>0.09815616480828951</v>
       </c>
       <c r="I15" t="n">
-        <v>2.518788888334409</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.919465714483586</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6599450293165071</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.279434871846556</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>6250311892.334587</v>
+        <v>8044658626.10986</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2501916475428726</v>
+        <v>0.1657335098934741</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6740843093852317</v>
+        <v>0.2573891245997631</v>
       </c>
       <c r="I16" t="n">
-        <v>2.680422399885281</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.219910122315856</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6583632312104906</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.947354501893955</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>8937844349.509863</v>
+        <v>7323928907.904593</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1298288182948312</v>
+        <v>0.1959912142853775</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1132634228548306</v>
+        <v>0.3401521750432429</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2038679627223919</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.631739238088684</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7830712957033098</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.029686675977512</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>6183777588.407201</v>
+        <v>10649233868.42768</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.197393215158375</v>
+        <v>0.103061349159951</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4280742758700781</v>
+        <v>0.08596372057676635</v>
       </c>
       <c r="I18" t="n">
-        <v>2.092256010630722</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.38250050943709</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7163985723636994</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.945470937836898</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>4368662729.747043</v>
+        <v>5272507199.889369</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3009922855903638</v>
+        <v>0.2484007987751028</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9107857814600719</v>
+        <v>0.483506642013501</v>
       </c>
       <c r="I19" t="n">
-        <v>2.253889522181593</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.722940154606956</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7598411428137115</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.473882701667275</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>6816650549.686338</v>
+        <v>7669988673.49424</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2247941476287807</v>
+        <v>0.1929540463487767</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.555746708761669</v>
+        <v>0.3318446947437965</v>
       </c>
       <c r="I20" t="n">
-        <v>2.626544562701657</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.967594885244543</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7909253274352491</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.85091166346044</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>11484899976.5689</v>
+        <v>13785589982.75257</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1231591570571581</v>
+        <v>0.07163349782167423</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08218667472970152</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.424502673263067</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.233046564354457</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4119151859106949</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.005257153859443</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>8811090206.676687</v>
+        <v>7355005375.684935</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1629112500644123</v>
+        <v>0.2151067849971035</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2674083430889972</v>
+        <v>0.3924384596396985</v>
       </c>
       <c r="I22" t="n">
-        <v>2.460421231385483</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.945617159622995</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.544605706601286</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.946496972402727</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>4503997408.486504</v>
+        <v>6836223248.999528</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2779904841065922</v>
+        <v>0.2061418664474188</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8036107442786077</v>
+        <v>0.3679169692933328</v>
       </c>
       <c r="I23" t="n">
-        <v>2.146133847814345</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.693607869855377</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.778364050729221</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.873673144729043</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>5016769604.740017</v>
+        <v>6228396705.716496</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2741165846445655</v>
+        <v>0.2392964000883346</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.785560622457806</v>
+        <v>0.4586036355589805</v>
       </c>
       <c r="I24" t="n">
-        <v>2.357155376783538</v>
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9866269289447462</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3154599349993213</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.422971395091561</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9018861013199863</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.61475063130816</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>8728481798.771954</v>
+        <v>9619842590.584978</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.151548915435226</v>
+        <v>0.1342391268713549</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2144664621145682</v>
+        <v>0.1712434217736289</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1995241037279283</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.554534145291177</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7563118478851877</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.571702812412576</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>8924536886.040812</v>
+        <v>4997579723.683322</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1226847996687179</v>
+        <v>0.3097618398489594</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07997644477100664</v>
+        <v>0.6513457771931993</v>
       </c>
       <c r="I26" t="n">
-        <v>1.876744661896226</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9847350472429532</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.451076759237398</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7736175162509085</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.02127356578077</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>7112736757.409311</v>
+        <v>12162541561.46857</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2058615494907368</v>
+        <v>0.1264194594714581</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4675317960811052</v>
+        <v>0.1498545047861898</v>
       </c>
       <c r="I27" t="n">
-        <v>2.509809248803805</v>
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9860520913307477</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3361007570580661</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.709501838527304</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8309725320394024</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.90994880226074</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>5791972049.781318</v>
+        <v>8462696372.530368</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1989877696394469</v>
+        <v>0.1789036677381476</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4355039737534079</v>
+        <v>0.2934130880812418</v>
       </c>
       <c r="I28" t="n">
-        <v>1.97552069673287</v>
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4054813749558649</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.312292177240566</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6066621432647387</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.820950688054207</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>4597846641.289246</v>
+        <v>8695759768.193188</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2968133338212722</v>
+        <v>0.1861577439065284</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8913142930400049</v>
+        <v>0.313254959231427</v>
       </c>
       <c r="I29" t="n">
-        <v>2.33919609772233</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.782866878545101</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5074668291267563</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.366469703990026</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>6064185824.539979</v>
+        <v>13073810977.42997</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2539831998167433</v>
+        <v>0.0955688461579406</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6917507411303391</v>
+        <v>0.06546968719367734</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2003615344189248</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.310619368819411</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7480972895556637</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.651326422293861</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>10554428000.55256</v>
+        <v>6654812889.87162</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1394767371498418</v>
+        <v>0.1476031356937143</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1582171219265766</v>
+        <v>0.2077976203990874</v>
       </c>
       <c r="I31" t="n">
-        <v>2.523278708099711</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.376851957921978</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5879218147300689</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.381584336679399</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>3717380529.513936</v>
+        <v>5475966411.261621</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3156757051593636</v>
+        <v>0.1899021564232742</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9792019896152846</v>
+        <v>0.3234969458008893</v>
       </c>
       <c r="I32" t="n">
-        <v>2.011439254855286</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.053770404769116</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.3479013528116074</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.904256651463031</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>5285494940.077937</v>
+        <v>11989278954.08251</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2076483701985753</v>
+        <v>0.1133899223803684</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4758573429272644</v>
+        <v>0.1142151773091984</v>
       </c>
       <c r="I33" t="n">
-        <v>1.881234481661529</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.419795452175638</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7692326848472335</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.964858244769033</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>8385157298.627676</v>
+        <v>9647699829.717899</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1677502734778998</v>
+        <v>0.1151177357922085</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2899553820515064</v>
+        <v>0.1189412168893627</v>
       </c>
       <c r="I34" t="n">
-        <v>2.411033213967162</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.679296898794246</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5464367321846513</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.249437744898781</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>3878282520.931634</v>
+        <v>4658784731.075579</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3201393537729549</v>
+        <v>0.343533213570592</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.7437196688363804</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2252652803844096</v>
+        <v>9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3287677354201214</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.069335241982549</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5959086493879919</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.84883774577729</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6334484429.929199</v>
+        <v>6099035821.250145</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2439725153791677</v>
+        <v>0.1988474253216325</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6451067651110683</v>
+        <v>0.347964689006928</v>
       </c>
       <c r="I36" t="n">
-        <v>2.648993661528166</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.366445489766576</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7407328100111766</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.448210710456957</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4415342009.194013</v>
+        <v>10550848409.4426</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2723005392326269</v>
+        <v>0.09384358314861885</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7770989054620716</v>
+        <v>0.0607506236580122</v>
       </c>
       <c r="I37" t="n">
-        <v>2.060827272273607</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.61845760694088</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4902091036645085</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.185724466349292</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>4858284210.502468</v>
+        <v>5659635863.933381</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.220516228277472</v>
+        <v>0.222616193036201</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5358140888814699</v>
+        <v>0.4129787328967406</v>
       </c>
       <c r="I38" t="n">
-        <v>1.836336284008509</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.406965768957811</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.750170653861163</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.59644730826545</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>7233761989.539165</v>
+        <v>8812435675.317488</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1611372549560837</v>
+        <v>0.1703173248916709</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2591425560884013</v>
+        <v>0.2699271052411782</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2203852755931427</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.101308100375896</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7945591940662783</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.78987578094967</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>7522405476.073065</v>
+        <v>9346603615.907425</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1852486527657187</v>
+        <v>0.1488129963736526</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.371487667777496</v>
+        <v>0.211106918394282</v>
       </c>
       <c r="I40" t="n">
-        <v>2.388584115140652</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.622660396696473</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7750290289348521</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.877920182000571</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>9061856986.441141</v>
+        <v>12409285610.53556</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1413487005937665</v>
+        <v>0.09456521163504386</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1669393844783389</v>
+        <v>0.06272447382357291</v>
       </c>
       <c r="I41" t="n">
-        <v>2.195521865232667</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.4722906375109</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7326479151339539</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.180667665168178</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>9640411141.676107</v>
+        <v>9393077074.01771</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1263448552245286</v>
+        <v>0.1204691999313053</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.09703017817345311</v>
+        <v>0.1335789267021752</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2237387566925355</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.423672713988026</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7237881297628961</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.052089881269897</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>9110366416.231482</v>
+        <v>5119235274.387625</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1400210344698377</v>
+        <v>0.1934135406813162</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1607532313504184</v>
+        <v>0.3331015367080745</v>
       </c>
       <c r="I43" t="n">
-        <v>2.186542225702063</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.874418022629203</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6286986294159777</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.69955456569035</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>5362017963.945507</v>
+        <v>8179526517.045687</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2808922424593553</v>
+        <v>0.1886198066336537</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8171312530773825</v>
+        <v>0.3199893703764645</v>
       </c>
       <c r="I44" t="n">
-        <v>2.581646365048637</v>
+        <v>16</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9875584499586683</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3294339931050673</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.384859623026888</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7506993542300331</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.62912746157377</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>5921281297.577896</v>
+        <v>8127706195.106255</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2645365320915821</v>
+        <v>0.1211769491117936</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7409231409418141</v>
+        <v>0.1355148131913615</v>
       </c>
       <c r="I45" t="n">
-        <v>2.684912219650582</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.344947463397737</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5888325478987304</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.431703494576871</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>10049230486.27968</v>
+        <v>4667591561.269606</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1068688693593281</v>
+        <v>0.3333448609579677</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.006283394243454827</v>
+        <v>0.7158517536008735</v>
       </c>
       <c r="I46" t="n">
-        <v>1.840826103773811</v>
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3684989802639024</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.275309782548603</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6198898554697759</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.122487326846915</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>6755141798.392029</v>
+        <v>5062612054.113867</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1841871402753037</v>
+        <v>0.2167901467204374</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3665416360195453</v>
+        <v>0.3970429117626487</v>
       </c>
       <c r="I47" t="n">
-        <v>2.132664388518439</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.470006941258942</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7163985723636994</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.857964506015046</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>11270390689.15221</v>
+        <v>7565931122.242752</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1359618483745098</v>
+        <v>0.201839581318753</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1418397814191082</v>
+        <v>0.3561490494103796</v>
       </c>
       <c r="I48" t="n">
-        <v>2.626544562701657</v>
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.979982276342607</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.223401403065141</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.130212205349841</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8932018570256873</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.73382493516391</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>4803919745.428542</v>
+        <v>7324384073.475927</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2399148322776958</v>
+        <v>0.1541367954867817</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6262003182583001</v>
+        <v>0.2256689568372499</v>
       </c>
       <c r="I49" t="n">
-        <v>1.97552069673287</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.560913928450418</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7232259329141669</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.903604729832921</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>9713213231.47526</v>
+        <v>7895790739.688458</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1426569433799554</v>
+        <v>0.1728392044561514</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1730350361320194</v>
+        <v>0.2768251317042606</v>
       </c>
       <c r="I50" t="n">
-        <v>2.375114655844746</v>
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9844113683175744</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2720666749810067</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.012634181543434</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8327568286834607</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.64250239212578</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>9837725550.728724</v>
+        <v>12609536447.92936</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1270058839878337</v>
+        <v>0.1067736681328273</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1001101883341892</v>
+        <v>0.09611792257553622</v>
       </c>
       <c r="I51" t="n">
-        <v>2.141644028049043</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.328714750617577</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7667871809877105</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.007028869136633</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>5084779270.853944</v>
+        <v>14296263718.2699</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2756016683030278</v>
+        <v>0.07841901507225921</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7924802498802748</v>
+        <v>0.01856023508001291</v>
       </c>
       <c r="I52" t="n">
-        <v>2.402053574436558</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.34674489287093</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6946881361198826</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.547017829526721</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>8405710795.894674</v>
+        <v>11721712558.36613</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1417872300082086</v>
+        <v>0.1179894075301212</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1689826768844208</v>
+        <v>0.1267960200767975</v>
       </c>
       <c r="I53" t="n">
-        <v>2.0428679932124</v>
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2064432452647268</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.313954705356966</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6027502263958689</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.741049822560413</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>9397842841.821518</v>
+        <v>10077509277.10445</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1541335277021129</v>
+        <v>0.1580340018756693</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2265092543279826</v>
+        <v>0.2363288762010753</v>
       </c>
       <c r="I54" t="n">
-        <v>2.482870330211993</v>
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9860367940239217</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.335254604693711</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.935185225349428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8811570347515411</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.68795546968139</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>11543454897.33391</v>
+        <v>10555598769.34225</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1286611454897287</v>
+        <v>0.1253166190668336</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1078227456804389</v>
+        <v>0.1468379363493766</v>
       </c>
       <c r="I55" t="n">
-        <v>2.545727806926221</v>
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3004780897265284</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.207288892011229</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5355329292198675</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7.503369692386121</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>8271011264.666486</v>
+        <v>14769014080.92918</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1855834179016675</v>
+        <v>0.08477670974779294</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3730474789043631</v>
+        <v>0.035950259065978</v>
       </c>
       <c r="I56" t="n">
-        <v>2.631034382466959</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.492314853820011</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7486168875496768</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.480022897173525</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>6354086090.627261</v>
+        <v>8509763966.612791</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1719028691806994</v>
+        <v>0.1157365402688159</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.309304066508293</v>
+        <v>0.1206338154238971</v>
       </c>
       <c r="I57" t="n">
-        <v>1.872254842130924</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.057368314064945</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6606409117984798</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.155449921904651</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>5390230858.038585</v>
+        <v>8337086117.781219</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.211388840294425</v>
+        <v>0.1941665225872481</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.493285761387518</v>
+        <v>0.3351611470029106</v>
       </c>
       <c r="I58" t="n">
-        <v>1.95307159790636</v>
+        <v>10</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9852600233522341</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4860299735122244</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.085960594167941</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8877576860177666</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.66919312618739</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>9590485787.030098</v>
+        <v>9246756505.722868</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1420243802292103</v>
+        <v>0.1708158064963043</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1700876591951059</v>
+        <v>0.271290587997671</v>
       </c>
       <c r="I59" t="n">
-        <v>2.334706277957028</v>
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3582604734970845</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.837197054926384</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.4872510753420714</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6.907824451915045</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>10671929306.86122</v>
+        <v>3756755530.926711</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1438317754797287</v>
+        <v>0.2705321950372679</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1785090714619918</v>
+        <v>0.5440420296789428</v>
       </c>
       <c r="I60" t="n">
-        <v>2.631034382466959</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.263096271482118</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.698020514272321</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.697314013964304</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>6099749539.723274</v>
+        <v>5520259341.545285</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1734880347313422</v>
+        <v>0.181735369287771</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3166900174282145</v>
+        <v>0.3011585619333518</v>
       </c>
       <c r="I61" t="n">
-        <v>1.813887185181999</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.301443851889385</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6949484492001708</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.597525132114033</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>6821756366.948321</v>
+        <v>6957539687.547158</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2207861390795708</v>
+        <v>0.2191126531018681</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5370717164751622</v>
+        <v>0.403395598348254</v>
       </c>
       <c r="I62" t="n">
-        <v>2.581646365048637</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.934431294564135</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7986014788583835</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.037598282603536</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>7170630042.335458</v>
+        <v>10316991974.48316</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2049300802473689</v>
+        <v>0.1513189545810622</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4631916903349627</v>
+        <v>0.2179613956157789</v>
       </c>
       <c r="I63" t="n">
-        <v>2.518788888334409</v>
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.485243373806051</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.392054176090752</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6214976748637233</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.037899321183716</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>8080732587.663916</v>
+        <v>4130809868.871402</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1692076263094462</v>
+        <v>0.3018366082147113</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2967457999245455</v>
+        <v>0.6296681133153985</v>
       </c>
       <c r="I64" t="n">
-        <v>2.343685917487632</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.606463465223875</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7475768481136873</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.345073497049871</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>11443659725.15251</v>
+        <v>7692584790.330491</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1055203334424475</v>
+        <v>0.1304147302036952</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.1607826567988052</v>
       </c>
       <c r="I65" t="n">
-        <v>2.069806911804212</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.798326000337134</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6325718615610531</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.853111230883927</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>10573397297.25774</v>
+        <v>12106077813.36942</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.116434979731566</v>
+        <v>0.1006119710097086</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.05085591329375316</v>
+        <v>0.07926400519922065</v>
       </c>
       <c r="I66" t="n">
-        <v>2.110215289691929</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.782226455839638</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7417953562809267</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.053680669778897</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>7663161473.633223</v>
+        <v>12597010147.00576</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1568934719876092</v>
+        <v>0.08005591312790253</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2393689919283411</v>
+        <v>0.0230375964354994</v>
       </c>
       <c r="I67" t="n">
-        <v>2.060827272273607</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.293761020796078</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.4279186933646436</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5.264612846496794</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>9843042284.433578</v>
+        <v>12667260818.11138</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1186876888507878</v>
+        <v>0.1060803191230372</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06135222958367317</v>
+        <v>0.09422142446950164</v>
       </c>
       <c r="I68" t="n">
-        <v>2.002459615324682</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.910005421527145</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.4113619638360224</v>
+      </c>
+      <c r="N68" t="n">
+        <v>5.317233855193301</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>8417285656.753802</v>
+        <v>9315556050.839645</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.169288321450355</v>
+        <v>0.1321567164945602</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2971217924194535</v>
+        <v>0.1655474630575804</v>
       </c>
       <c r="I69" t="n">
-        <v>2.442461952324276</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.302844161822458</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7444362989403911</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.585881816985363</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>5506425349.019275</v>
+        <v>4623941069.486365</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2411783772273476</v>
+        <v>0.2282931711578364</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6320877039508914</v>
+        <v>0.4285068119790773</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2220865304613553</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.287597738029906</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7070523529602106</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.853449321174306</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>10022536696.49516</v>
+        <v>10015906943.15978</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1089829514300474</v>
+        <v>0.1498526771981468</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01613378899161678</v>
+        <v>0.2139507282024627</v>
       </c>
       <c r="I71" t="n">
-        <v>1.872254842130924</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.099809504057982</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7945591940662783</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.791374377267584</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>6807649480.432936</v>
+        <v>7970681008.394015</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1796883246583087</v>
+        <v>0.1748301655194171</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3455797678213448</v>
+        <v>0.2822709516771121</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1761832496784429</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.540453130150304</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7755075122817112</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.969697115483921</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7796133304.594367</v>
+        <v>3420806030.534161</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1710167666340808</v>
+        <v>0.4372278570166254</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.305175343223404</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>2.285318260538706</v>
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9858610738434862</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.5053789121322038</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.412189714416904</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8873789134435458</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.33538855445401</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>5078888662.105012</v>
+        <v>6128960511.122656</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2336305733286551</v>
+        <v>0.1658231144017989</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5969193209852572</v>
+        <v>0.2576342172990108</v>
       </c>
       <c r="I74" t="n">
-        <v>2.033888353681796</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.916038200645096</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6363905339812508</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.811772478979919</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>6691030371.452931</v>
+        <v>10770819244.84967</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2223594031717012</v>
+        <v>0.09630450724498049</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5444022135098964</v>
+        <v>0.06748192033824728</v>
       </c>
       <c r="I75" t="n">
-        <v>2.550217626691523</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.394396199598964</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.702871181780283</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.663027436006695</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>5912644181.13282</v>
+        <v>6220163218.813537</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1966986553513822</v>
+        <v>0.253930984515432</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4248380305180901</v>
+        <v>0.4986332040110844</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2222027028160436</v>
+        <v>9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9806698452134909</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2619879088044207</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.002555415366848</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8913430135986923</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.824304856607</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>10062700364.70653</v>
+        <v>7546033627.251578</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1353595705559622</v>
+        <v>0.1593287373724443</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1390335165427703</v>
+        <v>0.2398703299030034</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2541730461454896</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.359141700188093</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7385969831636884</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.412797963085675</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10658438545.44144</v>
+        <v>9908984526.412212</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1174720306977333</v>
+        <v>0.1210699862132465</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05568796855414074</v>
+        <v>0.1352222405740417</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1793532935437175</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.284989772584177</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7380607687098993</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.476225601613809</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>8141986802.577906</v>
+        <v>11068546652.53465</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1367283903785655</v>
+        <v>0.1261353377121369</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1454114220075111</v>
+        <v>0.1490773545042576</v>
       </c>
       <c r="I79" t="n">
-        <v>1.90817340025334</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.586875845623638</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7759853077689025</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.932830309754412</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>9087071281.875349</v>
+        <v>8062599069.602804</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1331736202415101</v>
+        <v>0.1825834532129999</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1288482575145357</v>
+        <v>0.3034783021150558</v>
       </c>
       <c r="I80" t="n">
-        <v>2.074296731569513</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.743658406304228</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.789552530472703</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.047392203149833</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>7280868040.73895</v>
+        <v>5070347158.530247</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1525396908425882</v>
+        <v>0.1999279138696776</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2190829001443216</v>
+        <v>0.3509201190371515</v>
       </c>
       <c r="I81" t="n">
-        <v>1.903683580488038</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.314091118943337</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.431708584266854</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5.320080566393742</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>4293023446.042857</v>
+        <v>6346963515.106366</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2672458779738392</v>
+        <v>0.2046990559986269</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.7535471193668613</v>
+        <v>0.3639704903269479</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2045419450094805</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.773072433626101</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.1784729495654588</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-6.342531424935277</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>9433930924.424463</v>
+        <v>7097984879.272105</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1213357866588188</v>
+        <v>0.2096106916689536</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07369082755114605</v>
+        <v>0.37740514966125</v>
       </c>
       <c r="I83" t="n">
-        <v>1.962051237436964</v>
+        <v>9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9859013047670575</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4159162974743671</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.156483804036795</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8690327670509217</v>
+      </c>
+      <c r="N83" t="n">
+        <v>14.22417153698164</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>5563198132.916184</v>
+        <v>11471312192.64019</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2476631439473411</v>
+        <v>0.1381473124771845</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6623029509965963</v>
+        <v>0.1819333722817154</v>
       </c>
       <c r="I84" t="n">
-        <v>2.36164519654884</v>
+        <v>15</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9879715295246202</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3651389472797786</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.487973409694472</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7884259490219826</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.28054557074518</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>4265352888.630208</v>
+        <v>11850012240.99592</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2966144661494351</v>
+        <v>0.1061017638150837</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8903876851767744</v>
+        <v>0.09428008153438011</v>
       </c>
       <c r="I85" t="n">
-        <v>2.168582946640855</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.311898511199132</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7496535664212418</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.681172817225704</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>8116210821.414285</v>
+        <v>11339655216.90409</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1658860876860995</v>
+        <v>0.1360553456422651</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.281269358841963</v>
+        <v>0.1762112740537068</v>
       </c>
       <c r="I86" t="n">
-        <v>2.307767359365216</v>
+        <v>12</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9864349618822911</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4306308612626153</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.804031942731854</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8327567448739909</v>
+      </c>
+      <c r="N86" t="n">
+        <v>13.85110295474797</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8181953067.706768</v>
+        <v>10476494616.8621</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1328590913446387</v>
+        <v>0.1485151013675627</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1273827355100692</v>
+        <v>0.210292094536644</v>
       </c>
       <c r="I87" t="n">
-        <v>1.863275202600321</v>
+        <v>10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2744080797971826</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.874338700452899</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5334331198425026</v>
+      </c>
+      <c r="N87" t="n">
+        <v>7.794323696397154</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>8083903456.266218</v>
+        <v>4936175588.063316</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1454874017685533</v>
+        <v>0.2345480543276714</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1862233285034926</v>
+        <v>0.4456156185361817</v>
       </c>
       <c r="I88" t="n">
-        <v>2.015929074620588</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.469720148194442</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7293548840763455</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.117377533332467</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>8260976253.259091</v>
+        <v>5984481690.749082</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1613936984111295</v>
+        <v>0.2529888966558925</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.260337433665658</v>
+        <v>0.4960563375035868</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2352135921701973</v>
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.984961044473737</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2728721236620266</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.380383583754266</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9071727145698548</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.76307070764283</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>5357238824.132558</v>
+        <v>12025523766.77687</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2229584827578419</v>
+        <v>0.09388007640207652</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5471935764805135</v>
+        <v>0.06085044263098003</v>
       </c>
       <c r="I90" t="n">
-        <v>2.047357812977701</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.737363365056089</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7232259329141669</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.72715529322725</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>8307986075.738638</v>
+        <v>15644446768.4367</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1516524676996385</v>
+        <v>0.07601438885005926</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2149489555312887</v>
+        <v>0.01198292839646616</v>
       </c>
       <c r="I91" t="n">
-        <v>2.159603307110251</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.259490246543649</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7359067677337291</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.458645108130932</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>11616191496.52233</v>
+        <v>6354314541.272775</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1237966084177007</v>
+        <v>0.156232242447531</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.08515682788556331</v>
+        <v>0.2314005741558638</v>
       </c>
       <c r="I92" t="n">
-        <v>2.464911051150785</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.485360269654414</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.491598829584324</v>
+      </c>
+      <c r="N92" t="n">
+        <v>6.346616322032066</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>11155425329.06277</v>
+        <v>3860452501.008712</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1129429450545077</v>
+        <v>0.2686934859913354</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03458505961228225</v>
+        <v>0.5390126603801892</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2305971252735359</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.643072411794448</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.702871181780283</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.414351223811211</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>9579846106.578453</v>
+        <v>11137254982.29206</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1241359252298821</v>
+        <v>0.12041815349764</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08673784718039955</v>
+        <v>0.1334393008234341</v>
       </c>
       <c r="I94" t="n">
-        <v>2.038378173447098</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.702875931729963</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7658038642398588</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.613201353067213</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>7529998494.67462</v>
+        <v>8642398248.223188</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2028027457216627</v>
+        <v>0.1527553489300748</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4532795468426004</v>
+        <v>0.2218903248043352</v>
       </c>
       <c r="I95" t="n">
-        <v>2.617564923171053</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.689458453573089</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7618408298962768</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.547358144352447</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>9360703736.071648</v>
+        <v>13766433326.69487</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1664978503693209</v>
+        <v>0.1099781899981418</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2841198176795778</v>
+        <v>0.1048831613838453</v>
       </c>
       <c r="I96" t="n">
-        <v>2.671442760354676</v>
+        <v>10</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9855115340850363</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2669371669201214</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.866867787575838</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8593192053074353</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.31951631857287</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>5058136593.916592</v>
+        <v>8060963588.946168</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3101961722202303</v>
+        <v>0.1884695524593748</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9536705482234872</v>
+        <v>0.3195783843464565</v>
       </c>
       <c r="I97" t="n">
-        <v>2.689402039415884</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.988837107540248</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.383398225458037</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7171512901729106</v>
+      </c>
+      <c r="N97" t="n">
+        <v>11.95962757800017</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>5372730710.197259</v>
+        <v>4655267564.558562</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1989139559836161</v>
+        <v>0.238010373116989</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4351600449827092</v>
+        <v>0.4550860020424856</v>
       </c>
       <c r="I98" t="n">
-        <v>0.119597075055845</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.348748089327749</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7186911978614924</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.025075867902098</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>6401500059.789925</v>
+        <v>5468691182.660902</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2180949553948479</v>
+        <v>0.1997343776630163</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5245323633433728</v>
+        <v>0.3503907448775297</v>
       </c>
       <c r="I99" t="n">
-        <v>0.136242236047244</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.415854232291457</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7152458111581916</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.889061990872376</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>3916351638.430931</v>
+        <v>5571893965.213408</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2976312286572418</v>
+        <v>0.2359940422788783</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8951252080032274</v>
+        <v>0.4495707888358302</v>
       </c>
       <c r="I100" t="n">
-        <v>1.99796979555938</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.348859545406854</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.5793238288492047</v>
+      </c>
+      <c r="N100" t="n">
+        <v>8.237617031577241</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>7101581051.494394</v>
+        <v>13010080282.62159</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2393810755201154</v>
+        <v>0.1216065947043639</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6237133217341408</v>
+        <v>0.1366900107341148</v>
       </c>
       <c r="I101" t="n">
-        <v>2.913893027680983</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.275480580874797</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.6278338584540197</v>
+      </c>
+      <c r="N101" t="n">
+        <v>9.281196588205598</v>
       </c>
     </row>
   </sheetData>
